--- a/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:13:00+00:00</t>
+    <t>2023-03-07T14:55:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:55:06+00:00</t>
+    <t>2023-03-07T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:06:05+00:00</t>
+    <t>2023-03-07T15:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:58:21+00:00</t>
+    <t>2023-03-07T16:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:00:01+00:00</t>
+    <t>2023-03-07T16:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:32:06+00:00</t>
+    <t>2023-03-07T16:55:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:55:29+00:00</t>
+    <t>2023-03-07T17:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:01:20+00:00</t>
+    <t>2023-03-08T14:51:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:51:34+00:00</t>
+    <t>2023-03-08T14:57:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:57:07+00:00</t>
+    <t>2023-03-08T15:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/update-identifiers/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:19:16+00:00</t>
+    <t>2023-03-08T15:22:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
